--- a/biology/Zoologie/Filistatidae/Filistatidae.xlsx
+++ b/biology/Zoologie/Filistatidae/Filistatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Filistatidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Filistatidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Europe du Sud, en Afrique, dans le sud de l'Amérique, dans le sud de l'Asie et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Europe du Sud, en Afrique, dans le sud de l'Amérique, dans le sud de l'Asie et en Océanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées haplogynes primitives avec cribellum et calamistrum. Les chélicères sont petites ; le céphalothorax est enflé, d'aspect velouté. Il y a huit yeux, qui forment un groupement compact. La toile a la forme de tube entouré d'une collerette de fils calamistrés. Elles sont quelquefois  retrouvées dans les maisons.
 Certains taxons ont des durées de vie très longues, allant jusqu'à plus de cinq ans, les femelles étant plus longévives que les mâles.
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Néogène[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Néogène.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 15/10/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 15/10/2023) :
 Afrofilistata Benoit, 1968
 Andoharano Lehtinen, 1967
 Antilloides Brescovit, Sánchez-Ruiz &amp; Alayón, 2016
@@ -653,10 +673,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Ausserer en 1867.
-Cette famille rassemble 190 espèces dans 18 genres[1].
+Cette famille rassemble 190 espèces dans 18 genres.
 </t>
         </is>
       </c>
@@ -685,7 +707,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ausserer, 1867 : « Die Arachniden Tirols nach ihrer horizontalen und verticalen Verbreitung. I. » Verhandlungen der Zoologisch-Botanischen Gesellschaft in Wien, vol. 17, p. 137–170.</t>
         </is>
